--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.220327</v>
+        <v>1.223926333333333</v>
       </c>
       <c r="N2">
-        <v>3.660981</v>
+        <v>3.671779</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>238.495081952203</v>
+        <v>241.7785329263855</v>
       </c>
       <c r="R2">
-        <v>2146.455737569827</v>
+        <v>2176.006796337469</v>
       </c>
       <c r="S2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="T2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>239.481758</v>
       </c>
       <c r="I3">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J3">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.220327</v>
+        <v>1.223926333333333</v>
       </c>
       <c r="N3">
-        <v>3.660981</v>
+        <v>3.671779</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>97.41535176495535</v>
+        <v>97.7026766563869</v>
       </c>
       <c r="R3">
-        <v>876.7381658845981</v>
+        <v>879.3240899074821</v>
       </c>
       <c r="S3">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="T3">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H4">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I4">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J4">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,10 +682,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.220327</v>
+        <v>1.223926333333333</v>
       </c>
       <c r="N4">
-        <v>3.660981</v>
+        <v>3.671779</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>198.3173636653904</v>
+        <v>182.150123009281</v>
       </c>
       <c r="R4">
-        <v>1784.856272988513</v>
+        <v>1639.351107083529</v>
       </c>
       <c r="S4">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="T4">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H5">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I5">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J5">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,10 +744,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.220327</v>
+        <v>1.223926333333333</v>
       </c>
       <c r="N5">
-        <v>3.660981</v>
+        <v>3.671779</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>41.17209848855735</v>
+        <v>43.35985829382901</v>
       </c>
       <c r="R5">
-        <v>370.5488863970161</v>
+        <v>390.238724644461</v>
       </c>
       <c r="S5">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="T5">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H6">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I6">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J6">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.220327</v>
+        <v>1.223926333333333</v>
       </c>
       <c r="N6">
-        <v>3.660981</v>
+        <v>3.671779</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>194.9973220971827</v>
+        <v>148.4926363732705</v>
       </c>
       <c r="R6">
-        <v>1754.975898874644</v>
+        <v>1336.433727359434</v>
       </c>
       <c r="S6">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="T6">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
     </row>
   </sheetData>
